--- a/data_excel/282.xlsx
+++ b/data_excel/282.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>小奇</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +514,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -615,12 +619,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -628,8 +632,8 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -704,7 +708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -715,12 +719,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
